--- a/longtengFramework/data/加油卡接口测试-绑定加油卡.xlsx
+++ b/longtengFramework/data/加油卡接口测试-绑定加油卡.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>用例名称</t>
   </si>
@@ -32,6 +32,9 @@
     <t>方法</t>
   </si>
   <si>
+    <t>Content-Type</t>
+  </si>
+  <si>
     <t>入参</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>post</t>
   </si>
   <si>
+    <t>application/json</t>
+  </si>
+  <si>
     <t>{"dataSourceId":"bHRz","methodId":"00A","CardInfo":{"cardNumber":"gascard-20190413-04"}}</t>
   </si>
   <si>
@@ -81,6 +87,21 @@
   </si>
   <si>
     <t>返回值全部匹配</t>
+  </si>
+  <si>
+    <t>发送短信</t>
+  </si>
+  <si>
+    <t>http://39.104.14.232:8080/sms/rs/send</t>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded</t>
+  </si>
+  <si>
+    <t>{"requestId":"2019031601","systemId":"2","modelId":"2","phone":"15210900847",modelParms:"{\"notice.site_name\":\"龙腾\",\"notice.user_name\":\"肖老师\",\"notice.repay_time_d\":\"16号\",\"notice.repay_money\":\"100\",\"a\":\"b\"}"}</t>
+  </si>
+  <si>
+    <t>{"msg":"短信提交成功","systemId":"2","code":"0","modelId":"2","requestId":"2019031601"}</t>
   </si>
 </sst>
 </file>
@@ -89,9 +110,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -111,6 +132,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -118,7 +146,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +211,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -146,16 +233,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,88 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,13 +281,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,169 +401,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +475,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,65 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,16 +592,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,119 +610,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,23 +731,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1079,108 +1100,146 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="22.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="11.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="47.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="100.111111111111" customWidth="1"/>
-    <col min="6" max="6" width="61.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.4444444444444" style="1" customWidth="1"/>
-    <col min="8" max="8" width="80.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5555555555556" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="22.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="120.333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="116.444444444444" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.4444444444444" style="2" customWidth="1"/>
+    <col min="9" max="9" width="94.8888888888889" style="2" customWidth="1"/>
+    <col min="10" max="10" width="45.5555555555556" style="2" customWidth="1"/>
+    <col min="11" max="12" width="8.87962962962963" style="1"/>
+    <col min="13" max="13" width="10.1296296296296" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="3" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1191,6 +1250,7 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="http://115.28.108.130:8080/gasStation/process" tooltip="http://115.28.108.130:8080/gasStation/process"/>
     <hyperlink ref="C2" r:id="rId1" display="http://115.28.108.130:8080/gasStation/process" tooltip="http://115.28.108.130:8080/gasStation/process"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://39.104.14.232:8080/sms/rs/send"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
